--- a/seamonitor/backend/register/admin.xlsx
+++ b/seamonitor/backend/register/admin.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\大作业\seamonitor\backend\register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\Lab5项目管理\git提交\seamonitor\backend\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DE1B4F-DD3F-42E2-8098-F28EB5718CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199A784-7EA4-4DF5-98E9-CDC3F09E61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Email</t>
   </si>
@@ -175,6 +175,14 @@
   </si>
   <si>
     <t>admin000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa@example.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,8 +226,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -559,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -750,6 +759,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>123456</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/seamonitor/backend/register/admin.xlsx
+++ b/seamonitor/backend/register/admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\Lab5项目管理\git提交\seamonitor\backend\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199A784-7EA4-4DF5-98E9-CDC3F09E61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC06122-C416-4F20-AF53-49040C05EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,7 +570,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -763,11 +762,11 @@
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17">
-        <v>123456</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>

--- a/seamonitor/backend/register/admin.xlsx
+++ b/seamonitor/backend/register/admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\Lab5项目管理\git提交\seamonitor\backend\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199A784-7EA4-4DF5-98E9-CDC3F09E61DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFD459-049F-4688-88A3-DE00733E14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,9 +226,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,7 +570,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -763,11 +762,11 @@
       <c r="A17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17">
-        <v>123456</v>
+        <v>12345</v>
       </c>
     </row>
   </sheetData>

--- a/seamonitor/backend/register/admin.xlsx
+++ b/seamonitor/backend/register/admin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\软件工程\Lab5项目管理\git提交\seamonitor\backend\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC06122-C416-4F20-AF53-49040C05EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900A5C80-ED42-4504-926E-ECD562BCA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -766,7 +766,7 @@
         <v>49</v>
       </c>
       <c r="C17">
-        <v>12345</v>
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
